--- a/Berechnungen.xlsx
+++ b/Berechnungen.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Berechnungen.xlsx
+++ b/Berechnungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Vled</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Preis gesmat</t>
+  </si>
+  <si>
+    <t>Spg./Kanal</t>
+  </si>
+  <si>
+    <t>Rvor</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Pvor</t>
   </si>
 </sst>
 </file>
@@ -131,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +473,7 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,10 +481,22 @@
         <v>15.5</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,11 +504,26 @@
         <v>2.6</v>
       </c>
       <c r="C2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D2">
         <f>ROUNDDOWN($B$1/B2,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2*B2</f>
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <f>($B$1-E2)/C2</f>
+        <v>71.428571428571416</v>
+      </c>
+      <c r="G2">
+        <f>($B$1-E2)*C2</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -491,11 +531,22 @@
         <v>3.8</v>
       </c>
       <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
         <f>ROUNDDOWN($B$1/B3,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">D3*B3</f>
+        <v>15.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="1">($B$1-E3)/C3</f>
+        <v>15.000000000000036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -503,11 +554,22 @@
         <v>3.8</v>
       </c>
       <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
         <f>ROUNDDOWN($B$1/B4,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>15.000000000000036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -515,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -523,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -532,7 +594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -540,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -549,7 +611,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -557,7 +619,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -565,8 +627,9 @@
         <f>B11*B10</f>
         <v>111.88800000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -574,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -582,16 +645,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <f>MIN(C2:C4)</f>
+        <f>MIN(D2:D4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -600,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -609,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -617,7 +680,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -626,12 +689,12 @@
         <v>32.64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -639,7 +702,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -648,7 +711,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -657,11 +720,13 @@
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
